--- a/P-Geo/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/P-Geo/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="31">
   <si>
     <t>Placa</t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>PROCURADOR AUTO4</t>
+  </si>
+  <si>
+    <t>ABA259</t>
+  </si>
+  <si>
+    <t>ABA260</t>
+  </si>
+  <si>
+    <t>ABA261</t>
+  </si>
+  <si>
+    <t>ABA262</t>
+  </si>
+  <si>
+    <t>ABA263</t>
+  </si>
+  <si>
+    <t>ABA264</t>
+  </si>
+  <si>
+    <t>ABA265</t>
+  </si>
+  <si>
+    <t>ABA266</t>
+  </si>
+  <si>
+    <t>ABA267</t>
   </si>
 </sst>
 </file>
@@ -483,10 +510,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -497,10 +524,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -511,10 +538,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -525,10 +552,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -542,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
